--- a/data/sedimentPCl/sediment_PChl.xlsx
+++ b/data/sedimentPCl/sediment_PChl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adriannagorsky/Documents/UrbanPonds/data/sedimentPCl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C84A2240-E4D4-8242-AC08-AB1C27EE9BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E34D9AC-C4EA-2848-8DEF-BB46EE69B855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8660" yWindow="500" windowWidth="27240" windowHeight="16440" xr2:uid="{C66BE5DD-18A8-4146-8BB8-47B3FB2A07AE}"/>
+    <workbookView xWindow="7900" yWindow="500" windowWidth="27240" windowHeight="15960" xr2:uid="{C66BE5DD-18A8-4146-8BB8-47B3FB2A07AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1444,8 +1444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8EC5B9-A8A3-C549-A444-655F48DCF139}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="290" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1549,7 +1549,7 @@
         <v>-6.226274999999999E-4</v>
       </c>
       <c r="N2" s="3">
-        <f>M2/D2</f>
+        <f t="shared" ref="N2:N31" si="0">M2/D2</f>
         <v>-1.3744536423841089E-2</v>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
         <v>1.0975999999999999</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D30" si="0">C3-B3</f>
+        <f t="shared" ref="D3:D30" si="1">C3-B3</f>
         <v>4.3099999999999916E-2</v>
       </c>
       <c r="E3" s="2">
@@ -1574,11 +1574,11 @@
         <v>20</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G31" si="1">F3/1000</f>
+        <f t="shared" ref="G3:G31" si="2">F3/1000</f>
         <v>0.02</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H31" si="2">(I3*E3)+J3</f>
+        <f t="shared" ref="H3:H31" si="3">(I3*E3)+J3</f>
         <v>20.577300000000001</v>
       </c>
       <c r="I3">
@@ -1588,19 +1588,19 @@
         <v>5.43</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K31" si="3">F3-H3</f>
+        <f t="shared" ref="K3:K31" si="4">F3-H3</f>
         <v>-0.57730000000000103</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L31" si="4">K3/1000</f>
+        <f t="shared" ref="L3:L31" si="5">K3/1000</f>
         <v>-5.7730000000000108E-4</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M31" si="5">L3/40</f>
+        <f t="shared" ref="M3:M31" si="6">L3/40</f>
         <v>-1.4432500000000027E-5</v>
       </c>
       <c r="N3" s="3">
-        <f>M3/D3</f>
+        <f t="shared" si="0"/>
         <v>-3.3486078886311034E-4</v>
       </c>
     </row>
@@ -1615,7 +1615,7 @@
         <v>1.0992</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.6000000000000032E-2</v>
       </c>
       <c r="E4" s="2">
@@ -1625,11 +1625,11 @@
         <v>40</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
       <c r="H4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29.232900000000001</v>
       </c>
       <c r="I4">
@@ -1639,19 +1639,19 @@
         <v>5.43</v>
       </c>
       <c r="K4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.767099999999999</v>
       </c>
       <c r="L4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.07671E-2</v>
       </c>
       <c r="M4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.6917750000000001E-4</v>
       </c>
       <c r="N4" s="3">
-        <f>M4/D4</f>
+        <f t="shared" si="0"/>
         <v>7.4771527777777718E-3</v>
       </c>
     </row>
@@ -1666,7 +1666,7 @@
         <v>1.0871999999999999</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.8599999999999968E-2</v>
       </c>
       <c r="E5" s="2">
@@ -1676,11 +1676,11 @@
         <v>80</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.08</v>
       </c>
       <c r="H5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.905099999999997</v>
       </c>
       <c r="I5">
@@ -1690,19 +1690,19 @@
         <v>5.43</v>
       </c>
       <c r="K5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>55.094900000000003</v>
       </c>
       <c r="L5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.5094900000000002E-2</v>
       </c>
       <c r="M5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3773725000000001E-3</v>
       </c>
       <c r="N5" s="3">
-        <f>M5/D5</f>
+        <f t="shared" si="0"/>
         <v>3.5683225388601067E-2</v>
       </c>
       <c r="P5" s="2">
@@ -1723,7 +1723,7 @@
         <v>1.0418000000000001</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.660000000000017E-2</v>
       </c>
       <c r="E6" s="2">
@@ -1733,11 +1733,11 @@
         <v>160</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
       <c r="H6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>48.708000000000006</v>
       </c>
       <c r="I6">
@@ -1747,19 +1747,19 @@
         <v>5.43</v>
       </c>
       <c r="K6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>111.292</v>
       </c>
       <c r="L6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.111292</v>
       </c>
       <c r="M6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.7823000000000001E-3</v>
       </c>
       <c r="N6" s="3">
-        <f>M6/D6</f>
+        <f t="shared" si="0"/>
         <v>0.16760843373493806</v>
       </c>
       <c r="P6" s="2">
@@ -1780,7 +1780,7 @@
         <v>1.0673999999999999</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.9799999999999827E-2</v>
       </c>
       <c r="E7" s="2">
@@ -1790,11 +1790,11 @@
         <v>320</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.32</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>76.838700000000017</v>
       </c>
       <c r="I7">
@@ -1804,19 +1804,19 @@
         <v>5.43</v>
       </c>
       <c r="K7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>243.16129999999998</v>
       </c>
       <c r="L7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.24316129999999997</v>
       </c>
       <c r="M7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.0790324999999996E-3</v>
       </c>
       <c r="N7" s="3">
-        <f>M7/D7</f>
+        <f t="shared" si="0"/>
         <v>0.20399437919463204</v>
       </c>
       <c r="P7" s="2">
@@ -1837,7 +1837,7 @@
         <v>1.0975999999999999</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.6999999999999922E-2</v>
       </c>
       <c r="E8" s="2">
@@ -1847,11 +1847,11 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22.741199999999999</v>
       </c>
       <c r="I8">
@@ -1861,19 +1861,19 @@
         <v>5.43</v>
       </c>
       <c r="K8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-22.741199999999999</v>
       </c>
       <c r="L8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.27412E-2</v>
       </c>
       <c r="M8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-5.6853000000000003E-4</v>
       </c>
       <c r="N8" s="3">
-        <f>M8/D8</f>
+        <f t="shared" si="0"/>
         <v>-1.5365675675675709E-2</v>
       </c>
       <c r="P8" s="2">
@@ -1894,7 +1894,7 @@
         <v>1.1059000000000001</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.6700000000000177E-2</v>
       </c>
       <c r="E9" s="2">
@@ -1904,11 +1904,11 @@
         <v>20</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
       <c r="H9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33.560699999999997</v>
       </c>
       <c r="I9">
@@ -1918,19 +1918,19 @@
         <v>5.43</v>
       </c>
       <c r="K9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-13.560699999999997</v>
       </c>
       <c r="L9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.3560699999999997E-2</v>
       </c>
       <c r="M9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.390174999999999E-4</v>
       </c>
       <c r="N9" s="3">
-        <f>M9/D9</f>
+        <f t="shared" si="0"/>
         <v>-9.237534059945457E-3</v>
       </c>
       <c r="P9" s="2">
@@ -1951,7 +1951,7 @@
         <v>1.1297999999999999</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.0099999999999838E-2</v>
       </c>
       <c r="E10" s="2">
@@ -1961,11 +1961,11 @@
         <v>40</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.905099999999997</v>
       </c>
       <c r="I10">
@@ -1975,19 +1975,19 @@
         <v>5.43</v>
       </c>
       <c r="K10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15.094900000000003</v>
       </c>
       <c r="L10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5094900000000003E-2</v>
       </c>
       <c r="M10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.7737250000000007E-4</v>
       </c>
       <c r="N10" s="3">
-        <f>M10/D10</f>
+        <f t="shared" si="0"/>
         <v>4.7112671660424574E-3</v>
       </c>
       <c r="P10" s="2">
@@ -2008,7 +2008,7 @@
         <v>1.0714999999999999</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7799999999999816E-2</v>
       </c>
       <c r="E11" s="2">
@@ -2018,11 +2018,11 @@
         <v>80</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.08</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.888500000000001</v>
       </c>
       <c r="I11">
@@ -2032,19 +2032,19 @@
         <v>5.43</v>
       </c>
       <c r="K11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>42.111499999999999</v>
       </c>
       <c r="L11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.2111499999999996E-2</v>
       </c>
       <c r="M11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0527874999999999E-3</v>
       </c>
       <c r="N11" s="3">
-        <f>M11/D11</f>
+        <f t="shared" si="0"/>
         <v>5.914536516853993E-2</v>
       </c>
       <c r="P11" s="2">
@@ -2065,7 +2065,7 @@
         <v>1.0696000000000001</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.650000000000019E-2</v>
       </c>
       <c r="E12" s="2">
@@ -2075,11 +2075,11 @@
         <v>160</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
       <c r="H12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.216300000000004</v>
       </c>
       <c r="I12">
@@ -2089,19 +2089,19 @@
         <v>5.43</v>
       </c>
       <c r="K12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>117.7837</v>
       </c>
       <c r="L12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.11778369999999999</v>
       </c>
       <c r="M12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.9445925E-3</v>
       </c>
       <c r="N12" s="3">
-        <f>M12/D12</f>
+        <f t="shared" si="0"/>
         <v>0.11111669811320675</v>
       </c>
       <c r="P12" s="2">
@@ -2122,7 +2122,7 @@
         <v>1.109</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.2799999999999958E-2</v>
       </c>
       <c r="E13" s="2">
@@ -2132,11 +2132,11 @@
         <v>320</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.32</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40.052399999999999</v>
       </c>
       <c r="I13">
@@ -2146,19 +2146,19 @@
         <v>5.43</v>
       </c>
       <c r="K13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>279.94760000000002</v>
       </c>
       <c r="L13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.27994760000000002</v>
       </c>
       <c r="M13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.9986900000000001E-3</v>
       </c>
       <c r="N13" s="3">
-        <f>M13/D13</f>
+        <f t="shared" si="0"/>
         <v>0.13255094696969708</v>
       </c>
     </row>
@@ -2173,7 +2173,7 @@
         <v>1.1455</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.8000000000000069E-2</v>
       </c>
       <c r="E14" s="2">
@@ -2183,11 +2183,11 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35.724600000000002</v>
       </c>
       <c r="I14">
@@ -2197,19 +2197,19 @@
         <v>5.43</v>
       </c>
       <c r="K14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-35.724600000000002</v>
       </c>
       <c r="L14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-3.5724600000000002E-2</v>
       </c>
       <c r="M14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-8.931150000000001E-4</v>
       </c>
       <c r="N14" s="3">
-        <f>M14/D14</f>
+        <f t="shared" si="0"/>
         <v>-1.1450192307692298E-2</v>
       </c>
     </row>
@@ -2224,7 +2224,7 @@
         <v>1.1128</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.8000000000000043E-2</v>
       </c>
       <c r="E15" s="2">
@@ -2234,11 +2234,11 @@
         <v>20</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
       <c r="H15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22.741199999999999</v>
       </c>
       <c r="I15">
@@ -2248,19 +2248,19 @@
         <v>5.43</v>
       </c>
       <c r="K15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.7411999999999992</v>
       </c>
       <c r="L15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.7411999999999992E-3</v>
       </c>
       <c r="M15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-6.8529999999999983E-5</v>
       </c>
       <c r="N15" s="3">
-        <f>M15/D15</f>
+        <f t="shared" si="0"/>
         <v>-1.4277083333333316E-3</v>
       </c>
     </row>
@@ -2275,7 +2275,7 @@
         <v>1.089</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.0200000000000005E-2</v>
       </c>
       <c r="E16" s="2">
@@ -2285,11 +2285,11 @@
         <v>40</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
       <c r="H16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35.724600000000002</v>
       </c>
       <c r="I16">
@@ -2299,19 +2299,19 @@
         <v>5.43</v>
       </c>
       <c r="K16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.2753999999999976</v>
       </c>
       <c r="L16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.2753999999999978E-3</v>
       </c>
       <c r="M16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0688499999999995E-4</v>
       </c>
       <c r="N16" s="3">
-        <f>M16/D16</f>
+        <f t="shared" si="0"/>
         <v>3.5392384105960243E-3</v>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
         <v>1.1217999999999999</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.7399999999999904E-2</v>
       </c>
       <c r="E17" s="2">
@@ -2336,11 +2336,11 @@
         <v>80</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.08</v>
       </c>
       <c r="H17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20.577300000000001</v>
       </c>
       <c r="I17">
@@ -2350,19 +2350,19 @@
         <v>5.43</v>
       </c>
       <c r="K17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>59.422699999999999</v>
       </c>
       <c r="L17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.9422700000000002E-2</v>
       </c>
       <c r="M17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4855675000000001E-3</v>
       </c>
       <c r="N17" s="3">
-        <f>M17/D17</f>
+        <f t="shared" si="0"/>
         <v>2.2041060830860566E-2</v>
       </c>
     </row>
@@ -2377,7 +2377,7 @@
         <v>1.1138999999999999</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.8399999999999785E-2</v>
       </c>
       <c r="E18" s="2">
@@ -2387,11 +2387,11 @@
         <v>160</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
       <c r="H18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.888500000000001</v>
       </c>
       <c r="I18">
@@ -2401,19 +2401,19 @@
         <v>5.43</v>
       </c>
       <c r="K18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>122.11150000000001</v>
       </c>
       <c r="L18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.12211150000000001</v>
       </c>
       <c r="M18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.0527875000000001E-3</v>
       </c>
       <c r="N18" s="3">
-        <f>M18/D18</f>
+        <f t="shared" si="0"/>
         <v>5.2273758561644026E-2</v>
       </c>
     </row>
@@ -2428,7 +2428,7 @@
         <v>1.093</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.5599999999999863E-2</v>
       </c>
       <c r="E19" s="2">
@@ -2438,11 +2438,11 @@
         <v>320</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.32</v>
       </c>
       <c r="H19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40.052399999999999</v>
       </c>
       <c r="I19">
@@ -2452,19 +2452,19 @@
         <v>5.43</v>
       </c>
       <c r="K19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>279.94760000000002</v>
       </c>
       <c r="L19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.27994760000000002</v>
       </c>
       <c r="M19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.9986900000000001E-3</v>
       </c>
       <c r="N19" s="3">
-        <f>M19/D19</f>
+        <f t="shared" si="0"/>
         <v>0.15348004385964958</v>
       </c>
     </row>
@@ -2479,7 +2479,7 @@
         <v>1.1164000000000001</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.2200000000000033E-2</v>
       </c>
       <c r="E20" s="2">
@@ -2489,11 +2489,11 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33.560699999999997</v>
       </c>
       <c r="I20">
@@ -2503,19 +2503,19 @@
         <v>5.43</v>
       </c>
       <c r="K20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-33.560699999999997</v>
       </c>
       <c r="L20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-3.3560699999999999E-2</v>
       </c>
       <c r="M20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-8.3901750000000002E-4</v>
       </c>
       <c r="N20" s="3">
-        <f>M20/D20</f>
+        <f t="shared" si="0"/>
         <v>-1.3489027331189703E-2</v>
       </c>
     </row>
@@ -2530,7 +2530,7 @@
         <v>1.1004</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.8100000000000023E-2</v>
       </c>
       <c r="E21" s="2">
@@ -2540,11 +2540,11 @@
         <v>20</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
       <c r="H21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27.069000000000003</v>
       </c>
       <c r="I21">
@@ -2554,19 +2554,19 @@
         <v>5.43</v>
       </c>
       <c r="K21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-7.0690000000000026</v>
       </c>
       <c r="L21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-7.0690000000000024E-3</v>
       </c>
       <c r="M21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.7672500000000005E-4</v>
       </c>
       <c r="N21" s="3">
-        <f>M21/D21</f>
+        <f t="shared" si="0"/>
         <v>-4.6384514435695526E-3</v>
       </c>
     </row>
@@ -2581,7 +2581,7 @@
         <v>1.0819000000000001</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.1800000000000059E-2</v>
       </c>
       <c r="E22" s="2">
@@ -2591,11 +2591,11 @@
         <v>40</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
       <c r="H22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35.724600000000002</v>
       </c>
       <c r="I22">
@@ -2605,19 +2605,19 @@
         <v>5.43</v>
       </c>
       <c r="K22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.2753999999999976</v>
       </c>
       <c r="L22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.2753999999999978E-3</v>
       </c>
       <c r="M22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0688499999999995E-4</v>
       </c>
       <c r="N22" s="3">
-        <f>M22/D22</f>
+        <f t="shared" si="0"/>
         <v>2.5570574162679378E-3</v>
       </c>
     </row>
@@ -2632,7 +2632,7 @@
         <v>1.1023000000000001</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.1600000000000081E-2</v>
       </c>
       <c r="E23" s="2">
@@ -2642,11 +2642,11 @@
         <v>80</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.08</v>
       </c>
       <c r="H23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.216300000000004</v>
       </c>
       <c r="I23">
@@ -2656,19 +2656,19 @@
         <v>5.43</v>
       </c>
       <c r="K23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37.783699999999996</v>
       </c>
       <c r="L23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.7783699999999996E-2</v>
       </c>
       <c r="M23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.4459249999999991E-4</v>
       </c>
       <c r="N23" s="3">
-        <f>M23/D23</f>
+        <f t="shared" si="0"/>
         <v>2.2706550480769184E-2</v>
       </c>
     </row>
@@ -2683,7 +2683,7 @@
         <v>1.1029</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.079999999999993E-2</v>
       </c>
       <c r="E24" s="2">
@@ -2693,11 +2693,11 @@
         <v>160</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
       <c r="H24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>48.708000000000006</v>
       </c>
       <c r="I24">
@@ -2707,19 +2707,19 @@
         <v>5.43</v>
       </c>
       <c r="K24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>111.292</v>
       </c>
       <c r="L24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.111292</v>
       </c>
       <c r="M24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.7823000000000001E-3</v>
       </c>
       <c r="N24" s="3">
-        <f>M24/D24</f>
+        <f t="shared" si="0"/>
         <v>0.13376442307692354</v>
       </c>
     </row>
@@ -2734,7 +2734,7 @@
         <v>1.0858000000000001</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.8900000000000166E-2</v>
       </c>
       <c r="E25" s="2">
@@ -2744,11 +2744,11 @@
         <v>320</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.32</v>
       </c>
       <c r="H25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.216300000000004</v>
       </c>
       <c r="I25">
@@ -2758,19 +2758,19 @@
         <v>5.43</v>
       </c>
       <c r="K25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>277.78370000000001</v>
       </c>
       <c r="L25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.27778370000000002</v>
       </c>
       <c r="M25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.9445925000000009E-3</v>
       </c>
       <c r="N25" s="3">
-        <f>M25/D25</f>
+        <f t="shared" si="0"/>
         <v>0.14201620654396682</v>
       </c>
     </row>
@@ -2785,7 +2785,7 @@
         <v>1.0860000000000001</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2199999999999998E-2</v>
       </c>
       <c r="E26" s="2">
@@ -2795,11 +2795,11 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29.232900000000001</v>
       </c>
       <c r="I26">
@@ -2809,19 +2809,19 @@
         <v>5.43</v>
       </c>
       <c r="K26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-29.232900000000001</v>
       </c>
       <c r="L26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.9232899999999999E-2</v>
       </c>
       <c r="M26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-7.3082249999999996E-4</v>
       </c>
       <c r="N26" s="3">
-        <f>M26/D26</f>
+        <f t="shared" si="0"/>
         <v>-3.2919932432432436E-2</v>
       </c>
     </row>
@@ -2836,7 +2836,7 @@
         <v>1.0711999999999999</v>
       </c>
       <c r="D27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.9900000000000038E-2</v>
       </c>
       <c r="E27" s="2">
@@ -2846,11 +2846,11 @@
         <v>20</v>
       </c>
       <c r="G27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
       <c r="H27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.216300000000004</v>
       </c>
       <c r="I27">
@@ -2860,19 +2860,19 @@
         <v>5.43</v>
       </c>
       <c r="K27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-22.216300000000004</v>
       </c>
       <c r="L27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.2216300000000005E-2</v>
       </c>
       <c r="M27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-5.5540750000000012E-4</v>
       </c>
       <c r="N27" s="3">
-        <f>M27/D27</f>
+        <f t="shared" si="0"/>
         <v>-1.8575501672240782E-2</v>
       </c>
     </row>
@@ -2887,7 +2887,7 @@
         <v>1.0894999999999999</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.0699999999999958E-2</v>
       </c>
       <c r="E28" s="2">
@@ -2897,11 +2897,11 @@
         <v>40</v>
       </c>
       <c r="G28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
       <c r="H28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.216300000000004</v>
       </c>
       <c r="I28">
@@ -2911,19 +2911,19 @@
         <v>5.43</v>
       </c>
       <c r="K28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.2163000000000039</v>
       </c>
       <c r="L28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.2163000000000039E-3</v>
       </c>
       <c r="M28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-5.5407500000000096E-5</v>
       </c>
       <c r="N28" s="3">
-        <f>M28/D28</f>
+        <f t="shared" si="0"/>
         <v>-1.3613636363636402E-3</v>
       </c>
     </row>
@@ -2938,7 +2938,7 @@
         <v>1.0820000000000001</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.6800000000000157E-2</v>
       </c>
       <c r="E29" s="2">
@@ -2948,11 +2948,11 @@
         <v>80</v>
       </c>
       <c r="G29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.08</v>
       </c>
       <c r="H29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33.560699999999997</v>
       </c>
       <c r="I29">
@@ -2962,19 +2962,19 @@
         <v>5.43</v>
       </c>
       <c r="K29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46.439300000000003</v>
       </c>
       <c r="L29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.6439300000000003E-2</v>
       </c>
       <c r="M29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1609825E-3</v>
       </c>
       <c r="N29" s="3">
-        <f>M29/D29</f>
+        <f t="shared" si="0"/>
         <v>4.3320242537313182E-2</v>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
         <v>1.0871</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3199999999999896E-2</v>
       </c>
       <c r="E30" s="2">
@@ -2999,11 +2999,11 @@
         <v>160</v>
       </c>
       <c r="G30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
       <c r="H30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>46.5441</v>
       </c>
       <c r="I30">
@@ -3013,19 +3013,19 @@
         <v>5.43</v>
       </c>
       <c r="K30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>113.4559</v>
       </c>
       <c r="L30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1134559</v>
       </c>
       <c r="M30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.8363974999999998E-3</v>
       </c>
       <c r="N30" s="3">
-        <f>M30/D30</f>
+        <f t="shared" si="0"/>
         <v>8.5433659638554482E-2</v>
       </c>
     </row>
@@ -3050,11 +3050,11 @@
         <v>300</v>
       </c>
       <c r="G31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
       <c r="H31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>87.658199999999994</v>
       </c>
       <c r="I31">
@@ -3064,19 +3064,19 @@
         <v>5.43</v>
       </c>
       <c r="K31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>212.34180000000001</v>
       </c>
       <c r="L31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.2123418</v>
       </c>
       <c r="M31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.3085449999999996E-3</v>
       </c>
       <c r="N31" s="3">
-        <f>M31/D31</f>
+        <f t="shared" si="0"/>
         <v>0.15167271428571463</v>
       </c>
     </row>
@@ -3091,7 +3091,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J31"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3143,7 +3143,7 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>4.5299999999999896E-2</v>
+        <v>4.5299999999999903E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -3765,7 +3765,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D4" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
